--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -164,6 +164,15 @@
   </x:si>
   <x:si>
     <x:t>pics/spidermansticker.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/08/2024 11:39:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/08/2024 11:39:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/08/2024 11:39:29</x:t>
   </x:si>
   <x:si>
     <x:t>Hello Kitty Sticker</x:t>
@@ -922,6 +931,57 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,13 +1011,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,13 +1066,13 @@
     </x:row>
     <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,13 +1121,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -166,7 +166,16 @@
     <x:t>pics/spidermansticker.png</x:t>
   </x:si>
   <x:si>
+    <x:t>08-08-24 13:32:06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-08-24 14:43:06</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hello Kitty Sticker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-08-24 14:43:35</x:t>
   </x:si>
   <x:si>
     <x:t>pics/hellokittysticker2.png</x:t>
@@ -922,6 +931,57 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,13 +1011,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,13 +1066,13 @@
     </x:row>
     <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>85</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,13 +1121,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -149,6 +149,24 @@
   </x:si>
   <x:si>
     <x:t>8/8/2024 5:10:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:18:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:18:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:18:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:18:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:18:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2024 5:19:00 PM</x:t>
   </x:si>
   <x:si>
     <x:t>Hello Kitty Sticker</x:t>
@@ -862,6 +880,108 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="18" spans="1:14">
+      <x:c r="A18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B18" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14">
+      <x:c r="A19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B19" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="A20" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B20" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,13 +1011,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,13 +1033,13 @@
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,13 +1099,13 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,13 +1121,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -169,16 +169,34 @@
     <x:t>8/8/2024 5:19:00 PM</x:t>
   </x:si>
   <x:si>
+    <x:t>08/08/2024 21:16:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08/08/2024 21:16:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ironman Sticker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/08/2024 19:49:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123123123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pics/ironmansticker.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/08/2024 20:14:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/08/2024 20:14:50</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hello Kitty Sticker</x:t>
   </x:si>
   <x:si>
     <x:t>pics/hellokittysticker2.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ironman Sticker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pics/ironmansticker.png</x:t>
   </x:si>
   <x:si>
     <x:t>Woody Doll</x:t>
@@ -982,6 +1000,91 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B24" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="A25" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:14">
+      <x:c r="A26" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B26" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14">
+      <x:c r="A27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B27" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="A28" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B28" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,13 +1114,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1142,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,13 +1202,13 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,13 +1224,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -191,6 +191,24 @@
   </x:si>
   <x:si>
     <x:t>10/08/2024 20:14:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:41:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:44:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:44:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:44:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:44:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/08/2024 11:44:28</x:t>
   </x:si>
   <x:si>
     <x:t>Hello Kitty Sticker</x:t>
@@ -1085,6 +1103,108 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
+    <x:row r="29" spans="1:14">
+      <x:c r="A29" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B29" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:14">
+      <x:c r="A30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B30" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:14">
+      <x:c r="A31" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B31" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14">
+      <x:c r="A32" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B32" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14">
+      <x:c r="A33" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B33" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:14">
+      <x:c r="A34" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B34" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,13 +1234,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,13 +1322,13 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,13 +1344,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{54896D85-97BD-49D3-AE34-86D7089A5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353B7AA9-8D9A-4B28-8699-9B2389F10791}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{54896D85-97BD-49D3-AE34-86D7089A5ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D37BE2-CEB5-47F8-B0FA-A212BC5B6EAA}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{8F34D872-7D60-4FC9-91FB-ADD649A6EEAC}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="1" xr2:uid="{8F34D872-7D60-4FC9-91FB-ADD649A6EEAC}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="store" sheetId="1" r:id="rId1"/>
@@ -211,19 +211,106 @@
     <x:t>12/08/2024 11:44:28</x:t>
   </x:si>
   <x:si>
-    <x:t>Hello Kitty Sticker</x:t>
+    <x:t>15/08/2024 17:35:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 17:35:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 17:35:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 17:35:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 17:35:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 17:35:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>מדבקת הלו קיטי גדולה</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת באז שנות אור</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>מדבקת מיקי מאוס</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת משאית</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת דוב פרוותי</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת ברבי</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>צעצוע מנוף</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:50:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:52:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:52:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:52:39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2024 18:52:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>מדבקת הלו קיטי</x:t>
   </x:si>
   <x:si>
     <x:t>pics/hellokittysticker2.png</x:t>
   </x:si>
   <x:si>
-    <x:t>Woody Doll</x:t>
+    <x:t>מדבקת איירון מן</x:t>
+  </x:si>
+  <x:si>
+    <x:t>מדבקת ספיידרמן</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת שריף וודי</x:t>
   </x:si>
   <x:si>
     <x:t>pics/Woody_toy.png</x:t>
   </x:si>
   <x:si>
-    <x:t>Potato head Doll</x:t>
+    <x:t>בובת ג'סיקה</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת מר תפוח אדמה</x:t>
   </x:si>
   <x:si>
     <x:t>pics/potato_head.png</x:t>
@@ -288,6 +375,10 @@
     </x:ext>
   </x:extLst>
 </x:styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,16 +701,16 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E13"/>
+  <x:dimension ref="A1:E40"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B19" sqref="B19"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B1" sqref="B1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="33.285156" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="42.570312" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.855469" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="10" style="0" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="121.140625" style="0" bestFit="1" customWidth="1"/>
@@ -848,7 +939,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:14">
+    <x:row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -865,7 +956,7 @@
         <x:v>30</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:14">
+    <x:row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -882,7 +973,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:14">
+    <x:row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -899,7 +990,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:14">
+    <x:row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -916,7 +1007,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:14">
+    <x:row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -933,7 +1024,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:14">
+    <x:row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -950,7 +1041,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:14">
+    <x:row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -967,7 +1058,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:14">
+    <x:row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -984,7 +1075,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:14">
+    <x:row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1001,7 +1092,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:14">
+    <x:row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1018,7 +1109,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:14">
+    <x:row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1035,7 +1126,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:14">
+    <x:row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -1052,7 +1143,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:14">
+    <x:row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -1069,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:14">
+    <x:row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1086,7 +1177,7 @@
         <x:v>24</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:14">
+    <x:row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1103,7 +1194,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:14">
+    <x:row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1120,7 +1211,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:14">
+    <x:row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1137,7 +1228,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:14">
+    <x:row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1154,7 +1245,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:14">
+    <x:row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1171,7 +1262,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:14">
+    <x:row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1188,7 +1279,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:14">
+    <x:row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -1203,6 +1294,329 @@
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B35" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B36" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B37" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B38" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B39" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B40" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14">
+      <x:c r="A41" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B41" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:14">
+      <x:c r="A42" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B42" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14">
+      <x:c r="A43" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B43" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14">
+      <x:c r="A44" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B44" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14">
+      <x:c r="A45" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B45" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:14">
+      <x:c r="A46" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B46" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14">
+      <x:c r="A47" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B47" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14">
+      <x:c r="A48" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B48" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14">
+      <x:c r="A49" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B49" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14">
+      <x:c r="A50" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B50" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14">
+      <x:c r="A51" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B51" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:14">
+      <x:c r="A52" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B52" s="0">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14">
+      <x:c r="A53" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B53" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1221,8 +1635,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:C13"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B4" sqref="B4"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A13" sqref="A13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,18 +1648,18 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B1" s="0">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>40</x:v>
@@ -1256,7 +1670,7 @@
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>20</x:v>
@@ -1267,7 +1681,7 @@
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>20</x:v>
@@ -1278,7 +1692,7 @@
     </x:row>
     <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B5" s="0">
         <x:v>20</x:v>
@@ -1289,7 +1703,7 @@
     </x:row>
     <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>85</x:v>
@@ -1300,7 +1714,7 @@
     </x:row>
     <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B7" s="0">
         <x:v>150</x:v>
@@ -1311,7 +1725,7 @@
     </x:row>
     <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B8" s="0">
         <x:v>125</x:v>
@@ -1322,18 +1736,18 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B10" s="0">
         <x:v>125</x:v>
@@ -1344,18 +1758,18 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="0">
         <x:v>80</x:v>
@@ -1366,7 +1780,7 @@
     </x:row>
     <x:row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B13" s="0">
         <x:v>85</x:v>

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -290,6 +290,12 @@
   </x:si>
   <x:si>
     <x:t>מדבקת הלו קיטי</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-08-24 16:11:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207546055</x:t>
   </x:si>
   <x:si>
     <x:t>pics/hellokittysticker2.png</x:t>
@@ -1619,6 +1625,23 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="54" spans="1:14">
+      <x:c r="A54" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B54" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,7 +1677,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,7 +1693,7 @@
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>20</x:v>
@@ -1681,7 +1704,7 @@
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>20</x:v>
@@ -1736,18 +1759,18 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B10" s="0">
         <x:v>125</x:v>
@@ -1758,13 +1781,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/storeitems.xlsx
+++ b/storeitems.xlsx
@@ -301,9 +301,33 @@
     <x:t>pics/hellokittysticker2.png</x:t>
   </x:si>
   <x:si>
+    <x:t>18/08/2024 17:18:03</x:t>
+  </x:si>
+  <x:si>
     <x:t>מדבקת איירון מן</x:t>
   </x:si>
   <x:si>
+    <x:t>18/08/2024 17:30:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/08/2024 17:30:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/08/2024 17:30:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/08/2024 17:30:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>בובת ג'סיקה</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/08/2024 17:31:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>מדבקת ספיידרמן</x:t>
   </x:si>
   <x:si>
@@ -311,9 +335,6 @@
   </x:si>
   <x:si>
     <x:t>pics/Woody_toy.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>בובת ג'סיקה</x:t>
   </x:si>
   <x:si>
     <x:t>בובת מר תפוח אדמה</x:t>
@@ -1642,6 +1663,108 @@
         <x:v>86</x:v>
       </x:c>
     </x:row>
+    <x:row r="55" spans="1:14">
+      <x:c r="A55" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B55" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14">
+      <x:c r="A56" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B56" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:14">
+      <x:c r="A57" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B57" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:14">
+      <x:c r="A58" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B58" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:14">
+      <x:c r="A59" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B59" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:14">
+      <x:c r="A60" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B60" s="0">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,7 +1816,7 @@
     </x:row>
     <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>20</x:v>
@@ -1704,7 +1827,7 @@
     </x:row>
     <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>20</x:v>
@@ -1759,18 +1882,18 @@
     </x:row>
     <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>125</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B10" s="0">
         <x:v>125</x:v>
@@ -1781,13 +1904,13 @@
     </x:row>
     <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>99</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">
